--- a/AssetsAdvice.xlsx
+++ b/AssetsAdvice.xlsx
@@ -254,14 +254,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -272,19 +285,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -588,8 +588,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -604,15 +604,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -670,171 +670,195 @@
     </row>
     <row r="12" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="5" t="s">
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="8" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="F14" s="8" t="s">
         <v>15</v>
       </c>
       <c r="G14" s="9"/>
     </row>
     <row r="15" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="11"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="12" t="s">
+      <c r="A15" s="10"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="13"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
+      <c r="A16" s="5">
+        <v>1</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="14"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="14"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
+      <c r="A17" s="6">
+        <v>2</v>
+      </c>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+    </row>
+    <row r="18" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="6">
+        <v>3</v>
+      </c>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="14"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
+      <c r="A19" s="5">
+        <v>4</v>
+      </c>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="14"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="14"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
+      <c r="A20" s="6">
+        <v>5</v>
+      </c>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+    </row>
+    <row r="21" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="6">
+        <v>6</v>
+      </c>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="14"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
+      <c r="A22" s="5">
+        <v>7</v>
+      </c>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="14"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="14"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
+      <c r="A23" s="6">
+        <v>8</v>
+      </c>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+    </row>
+    <row r="24" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="6">
+        <v>9</v>
+      </c>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="14"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
+      <c r="A25" s="5">
+        <v>10</v>
+      </c>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="14"/>
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
+      <c r="A26" s="6">
+        <v>11</v>
+      </c>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
     </row>
     <row r="27" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="15"/>
-      <c r="B27" s="15"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="15"/>
+      <c r="A27" s="6">
+        <v>12</v>
+      </c>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
